--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zjlab\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8FFCF5-1585-44E0-8378-64889366C3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9C183-B351-4B39-A705-D2B2360133FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="5010" xr2:uid="{6A9A943D-6B28-4A88-993C-C62F3C6809BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17580" activeTab="2" xr2:uid="{6A9A943D-6B28-4A88-993C-C62F3C6809BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>姓名</t>
   </si>
@@ -37,6 +39,38 @@
   </si>
   <si>
     <t>zhangsan@zhejianglab.com</t>
+  </si>
+  <si>
+    <t>测试一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3列2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -402,13 +436,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7577CE62-32F3-421B-A922-5C8A3B51B6FD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -429,4 +463,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F789C1E-B506-417E-A3C0-35D63DE5488E}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF1267A-6818-43BB-A7C4-FD696CCDED29}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>